--- a/Disponibilidad camiones.xlsx
+++ b/Disponibilidad camiones.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://officesfg.sharepoint.com/sites/agricola/Shared Documents/Operaciones Agricolas/Planificacion y Control/Planificación Cosecha/2024/Camiones/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manuel.munozm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{19B745AE-E534-4F85-9A28-A82583A17BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B04A870-A731-4C1F-9FFB-5DE0745516CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1E933E-5A50-4030-88BA-20B1F3B86ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3210EBA-0503-4367-B316-E076F8DE55D6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{B3210EBA-0503-4367-B316-E076F8DE55D6}"/>
   </bookViews>
   <sheets>
     <sheet name="DISPONIBILIDAD CAMIONES" sheetId="2" r:id="rId1"/>
@@ -744,13 +744,13 @@
     <t xml:space="preserve">La Robleria </t>
   </si>
   <si>
-    <t>Tipio de camion</t>
-  </si>
-  <si>
     <t>Termo</t>
   </si>
   <si>
     <t>TRANS. MORROS LTDA.</t>
+  </si>
+  <si>
+    <t>Tipo de camion</t>
   </si>
 </sst>
 </file>
@@ -1312,7 +1312,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1327,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>10</v>
@@ -1338,7 +1338,7 @@
         <v>56</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C2" s="3">
         <v>12</v>
@@ -1349,7 +1349,7 @@
         <v>174</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -1360,7 +1360,7 @@
         <v>175</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="3">
         <v>9</v>
@@ -1371,7 +1371,7 @@
         <v>177</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C5" s="3">
         <v>5</v>
@@ -1382,7 +1382,7 @@
         <v>178</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C6" s="3">
         <v>10</v>
@@ -1393,7 +1393,7 @@
         <v>181</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="3">
         <v>12</v>
@@ -1404,7 +1404,7 @@
         <v>187</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C8" s="3">
         <v>4</v>
@@ -1412,10 +1412,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="32" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C9" s="3">
         <v>10</v>
@@ -1426,7 +1426,7 @@
         <v>189</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C10" s="3">
         <v>5</v>
@@ -1437,7 +1437,7 @@
         <v>195</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C11" s="3">
         <v>1</v>
@@ -1448,7 +1448,7 @@
         <v>196</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C12" s="3">
         <v>5</v>
@@ -1459,7 +1459,7 @@
         <v>198</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C13" s="3">
         <v>5</v>
@@ -1470,7 +1470,7 @@
         <v>231</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C14" s="3">
         <v>3</v>
@@ -1481,7 +1481,7 @@
         <v>232</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C15" s="3">
         <v>3</v>
